--- a/Documentación/Tareas.xlsx
+++ b/Documentación/Tareas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c3d7e817d206a332/MiGit/softDev_G3/Sprints/Documentación/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lpine\Google Drive\Jhon Fernando Vargas Piñeros\Desarrollo web sprints\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="8_{56B9DFD5-9DBB-4402-908A-BB3F56B9210F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74A8B921-9DAF-4D13-BB27-259CE6059D47}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AE99169-BAA1-4414-BAFD-F861A60AA95E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{E69A29C8-0605-4CBF-8DE3-F40ADD3A0F71}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{E69A29C8-0605-4CBF-8DE3-F40ADD3A0F71}"/>
   </bookViews>
   <sheets>
     <sheet name="Tareas" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Elegir un escenario o sector productivo en el cual
 se enmarca su proyecto. Ejemplo: Aeroespacial,
@@ -153,6 +153,21 @@
   </si>
   <si>
     <t>https://carlosazaustre.es/los-5-patrones-del-responsive-design</t>
+  </si>
+  <si>
+    <t>Sebastian Se encarga de nombre, genero, telefono</t>
+  </si>
+  <si>
+    <t>Harrison</t>
+  </si>
+  <si>
+    <t>Jhon Vargas</t>
+  </si>
+  <si>
+    <t>Ascarot</t>
+  </si>
+  <si>
+    <t>Johan Direccion Correo Electronico</t>
   </si>
 </sst>
 </file>
@@ -366,7 +381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -397,6 +412,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -767,37 +785,37 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="45.21875" customWidth="1"/>
+    <col min="2" max="2" width="45.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:2" ht="60" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:2" ht="60" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:2" ht="75" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -816,28 +834,28 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="161.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="161.44999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:3" ht="75" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" ht="60" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" ht="75" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" ht="90" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
@@ -845,17 +863,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" ht="75" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" ht="75" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="161.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3" ht="161.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
@@ -869,21 +887,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AF4EBF3-6FB2-4DA4-9814-DA8C5F59FA47}">
-  <dimension ref="B1:G9"/>
+  <dimension ref="B1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="2"/>
-    <col min="2" max="2" width="63.88671875" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="11.5546875" style="2"/>
+    <col min="1" max="1" width="11.5703125" style="2"/>
+    <col min="2" max="2" width="63.85546875" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="11.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
@@ -893,17 +911,19 @@
       <c r="F2" s="5"/>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="2:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="2:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
@@ -913,27 +933,33 @@
       <c r="F4" s="3"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="2:7" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="120" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="2:7" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" ht="270" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="C6" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>26</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="2:7" ht="187.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:8" ht="187.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="9" t="s">
         <v>14</v>
       </c>
@@ -942,8 +968,11 @@
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="2:7" ht="57.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H7" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="57.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
         <v>8</v>
       </c>
@@ -953,7 +982,7 @@
       <c r="F8" s="13"/>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="12" t="s">
         <v>21</v>
       </c>
